--- a/parametros/Datos.xlsx
+++ b/parametros/Datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Documentos\SEMILLERO SQA\INTELLIJ IDE\Reto2Scremplay\parametros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE49090-F987-49D6-BFB3-C0F56059F012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46426A7-DA1E-45FC-AC49-2E7E5D0C5CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E4EA05FD-AAF0-4B83-8AD6-C956455330CB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>url</t>
   </si>
@@ -40,13 +40,67 @@
   </si>
   <si>
     <t>Camiseta Manga Corta Infantil Niña Patprimo Rosa 86090333-4632</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>apellido</t>
+  </si>
+  <si>
+    <t>correo</t>
+  </si>
+  <si>
+    <t>contraseña</t>
+  </si>
+  <si>
+    <t>identificacion</t>
+  </si>
+  <si>
+    <t>rafael</t>
+  </si>
+  <si>
+    <t>gracia</t>
+  </si>
+  <si>
+    <t>maria</t>
+  </si>
+  <si>
+    <t>petro</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>Samuel0920</t>
+  </si>
+  <si>
+    <t>04/10/1994</t>
+  </si>
+  <si>
+    <t>04/10/1995</t>
+  </si>
+  <si>
+    <t>genero</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>asffdgddggh@gaddhd.com</t>
+  </si>
+  <si>
+    <t>fffsddggdf@asidddg.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,16 +111,28 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF4A4A4A"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,12 +155,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,43 +481,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D457863B-1996-4C43-9EDD-F6E61BF3A1E0}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.42578125" customWidth="1"/>
     <col min="2" max="2" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3">
+        <v>106788544</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3">
+        <v>154323564</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
